--- a/Big Tech/Accenture.xlsx
+++ b/Big Tech/Accenture.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFF4DAA-3416-824A-A3B9-62A70D4CB611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00BEA6D-5F21-D94B-B474-7E39CF484C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$W$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$W$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$W$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -323,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Accenture</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -866,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -930,18 +956,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -951,12 +965,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -978,12 +987,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -995,10 +998,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1006,6 +1005,27 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2235,6 +2255,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mthw&amp;q=XNYS%3aACN&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>ACCENTURE PUBLIC LIMITED COMPANY (XNYS:ACN)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1mthw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>345.29500000000002</v>
+    <v>242.8</v>
+    <v>1.2434000000000001</v>
+    <v>3.15</v>
+    <v>1.1144000000000001E-2</v>
+    <v>0.19</v>
+    <v>6.648E-4</v>
+    <v>USD</v>
+    <v>Accenture plc is a global professional services company engaged in providing a range of services in strategy and consulting, technology, operations and Accenture song. It serves clients in North America, Europe and Growth markets. It provides a range of services, including application services, artificial intelligence, automation, business process outsourcing, business strategy, change management, cloud, data and analytics, digital commerce, digital engineering and manufacturing, finance consulting, infrastructure, marketing, mergers and acquisitions, metaverse, operating models, security, supply chain management, technology consulting, technology innovation and zero-based transformation. It helps organizations to achieve transformational impact with solutions in C-Suite assessment, team dynamics and various others. It also offers automated production lines that leverage the cloud, data and artificial intelligence (AI) that makes factories and plants smarter through Eclipse Automation.</v>
+    <v>721000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1 Grand Canal Square, Grand Canal Harbour, Dublin 2, DUBLIN, DUBLIN IE</v>
+    <v>285.95999999999998</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45016.992773471873</v>
+    <v>0</v>
+    <v>282.61</v>
+    <v>189376500000</v>
+    <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
+    <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
+    <v>283.12</v>
+    <v>26.017099999999999</v>
+    <v>282.66000000000003</v>
+    <v>285.81</v>
+    <v>286</v>
+    <v>662595700</v>
+    <v>ACN</v>
+    <v>ACCENTURE PUBLIC LIMITED COMPANY (XNYS:ACN)</v>
+    <v>3009370</v>
+    <v>2885890</v>
+    <v>2009</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2535,10 +2995,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH117" sqref="AH117"/>
+      <selection pane="bottomRight" activeCell="Y124" sqref="Y124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2549,8 +3009,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2001</v>
@@ -2806,21 +3266,21 @@
         <v>82216000000</v>
       </c>
       <c r="AC3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AF3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3086,16 +3546,16 @@
         <v>19701539000</v>
       </c>
       <c r="AC6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AE6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AF6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3258,7 +3718,7 @@
     </row>
     <row r="9" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3349,16 +3809,16 @@
         <v>0</v>
       </c>
       <c r="AC9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AE9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3590,21 +4050,21 @@
         <v>10334358000</v>
       </c>
       <c r="AC12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AE12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AF12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3853,16 +4313,16 @@
         <v>10334358000</v>
       </c>
       <c r="AC15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AE15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AF15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3941,15 +4401,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>2.6091664683934659</v>
+        <v>3.0745780799052769</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>23.368597638068803</v>
+        <v>27.536985058822896</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>18.214599244871238</v>
+        <v>21.463639154853304</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4094,7 +4554,7 @@
         <v>871841000</v>
       </c>
       <c r="AC18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4174,7 +4634,7 @@
     </row>
     <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4832,7 +5292,7 @@
     </row>
     <row r="29" spans="1:29" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5277,7 +5737,7 @@
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -8491,7 +8951,7 @@
     </row>
     <row r="80" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:W80" si="6">B79/B3</f>
@@ -8794,10 +9254,10 @@
       <c r="W83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD83" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE83" s="34"/>
+      <c r="AD83" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE83" s="57"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8869,10 +9329,10 @@
       <c r="W84" s="1">
         <v>374349000</v>
       </c>
-      <c r="AD84" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE84" s="36"/>
+      <c r="AD84" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE84" s="59"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8945,7 +9405,7 @@
         <v>648506000</v>
       </c>
       <c r="AD85" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE85" s="24">
         <f>W17</f>
@@ -9023,7 +9483,7 @@
         <v>1020400000</v>
       </c>
       <c r="AD86" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE86" s="24">
         <f>W56</f>
@@ -9101,7 +9561,7 @@
         <v>9541129000</v>
       </c>
       <c r="AD87" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE87" s="24">
         <f>W61</f>
@@ -9178,17 +9638,17 @@
       <c r="W88" s="1">
         <v>-717998000</v>
       </c>
-      <c r="AD88" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE88" s="38">
+      <c r="AD88" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE88" s="34">
         <f>AE85/(AE86+AE87)</f>
         <v>1.4228343871288213E-2</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:W89" si="7">(-1*B88)/B3</f>
@@ -9279,7 +9739,7 @@
         <v>1.1656889382873953E-2</v>
       </c>
       <c r="AD89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE89" s="24">
         <f>W27</f>
@@ -9434,10 +9894,10 @@
       <c r="W91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD91" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE91" s="38">
+      <c r="AD91" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE91" s="34">
         <f>AE89/AE90</f>
         <v>0.24001380140225814</v>
       </c>
@@ -9512,10 +9972,10 @@
       <c r="W92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD92" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE92" s="40">
+      <c r="AD92" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE92" s="36">
         <f>AE88*(1-AE91)</f>
         <v>1.0813344971081806E-2</v>
       </c>
@@ -9590,10 +10050,10 @@
       <c r="W93" s="1">
         <v>12580000</v>
       </c>
-      <c r="AD93" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE93" s="36"/>
+      <c r="AD93" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE93" s="59"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9666,9 +10126,9 @@
         <v>-4260629000</v>
       </c>
       <c r="AD94" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE94" s="41">
+        <v>135</v>
+      </c>
+      <c r="AE94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -9742,11 +10202,12 @@
       <c r="W95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD95" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE95" s="43">
-        <v>1.24</v>
+      <c r="AD95" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE95" s="62" cm="1">
+        <f t="array" ref="AE95">_FV(A1,"Beta")</f>
+        <v>1.2434000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -9820,9 +10281,9 @@
         <v>1349064000</v>
       </c>
       <c r="AD96" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE96" s="41">
+        <v>137</v>
+      </c>
+      <c r="AE96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9896,12 +10357,12 @@
       <c r="W97" s="1">
         <v>-4116378000</v>
       </c>
-      <c r="AD97" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE97" s="40">
+      <c r="AD97" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.4331999999999999E-2</v>
+        <v>9.4478370000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9974,10 +10435,10 @@
       <c r="W98" s="1">
         <v>-2457306000</v>
       </c>
-      <c r="AD98" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE98" s="36"/>
+      <c r="AD98" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE98" s="59"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10050,7 +10511,7 @@
         <v>-86406000</v>
       </c>
       <c r="AD99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE99" s="24">
         <f>AE86+AE87</f>
@@ -10127,12 +10588,12 @@
       <c r="W100" s="10">
         <v>-5311026000</v>
       </c>
-      <c r="AD100" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE100" s="38">
+      <c r="AD100" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>2.0274604953967258E-2</v>
+        <v>1.7258521353273621E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10206,11 +10667,11 @@
         <v>-247815000</v>
       </c>
       <c r="AD101" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE101" s="58">
-        <f>W34*Y116</f>
-        <v>160709795250</v>
+        <v>142</v>
+      </c>
+      <c r="AE101" s="49" cm="1">
+        <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
+        <v>189376500000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10283,12 +10744,12 @@
       <c r="W102" s="10">
         <v>-278341000</v>
       </c>
-      <c r="AD102" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE102" s="38">
+      <c r="AD102" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.97972539504603273</v>
+        <v>0.98274147864672634</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10361,12 +10822,12 @@
       <c r="W103" s="1">
         <v>8168174000</v>
       </c>
-      <c r="AD103" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE103" s="44">
+      <c r="AD103" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE103" s="38">
         <f>AE99+AE101</f>
-        <v>164035551250</v>
+        <v>192702256000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10439,14 +10900,14 @@
       <c r="W104" s="11">
         <v>7889833000</v>
       </c>
-      <c r="AD104" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE104" s="36"/>
+      <c r="AD104" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE104" s="59"/>
     </row>
     <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -10540,11 +11001,11 @@
       <c r="AB105" s="15"/>
       <c r="AC105" s="15"/>
       <c r="AD105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>9.2638692263002004E-2</v>
+        <v>9.3034435379016234E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10617,33 +11078,33 @@
       <c r="W106" s="1">
         <v>8823131000</v>
       </c>
-      <c r="X106" s="45">
+      <c r="X106" s="63">
         <f>W106*(1+$AE$106)</f>
         <v>9348164161.4508705</v>
       </c>
-      <c r="Y106" s="45">
+      <c r="Y106" s="63">
         <f t="shared" ref="Y106:AB106" si="9">X106*(1+$AE$106)</f>
         <v>9904440179.9581642</v>
       </c>
-      <c r="Z106" s="45">
+      <c r="Z106" s="63">
         <f t="shared" si="9"/>
         <v>10493818206.883579</v>
       </c>
-      <c r="AA106" s="45">
+      <c r="AA106" s="63">
         <f t="shared" si="9"/>
         <v>11118268025.077459</v>
       </c>
-      <c r="AB106" s="45">
+      <c r="AB106" s="63">
         <f t="shared" si="9"/>
         <v>11779876632.165413</v>
       </c>
-      <c r="AC106" s="46" t="s">
+      <c r="AC106" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD106" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="AD106" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE106" s="48">
+      <c r="AE106" s="41">
         <f>(SUM(X4:AB4)/5)</f>
         <v>5.950644521212136E-2</v>
       </c>
@@ -10672,150 +11133,151 @@
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
-      <c r="X107" s="46"/>
-      <c r="Y107" s="46"/>
-      <c r="Z107" s="46"/>
-      <c r="AA107" s="46"/>
-      <c r="AB107" s="49">
+      <c r="X107" s="39"/>
+      <c r="Y107" s="39"/>
+      <c r="Z107" s="39"/>
+      <c r="AA107" s="39"/>
+      <c r="AB107" s="42">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>178512817796.95441</v>
-      </c>
-      <c r="AC107" s="50" t="s">
+        <v>177474443356.57159</v>
+      </c>
+      <c r="AC107" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD107" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="AD107" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE107" s="52">
+      <c r="AE107" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="49">
+      <c r="X108" s="42">
         <f t="shared" ref="X108:Z108" si="10">X107+X106</f>
         <v>9348164161.4508705</v>
       </c>
-      <c r="Y108" s="49">
+      <c r="Y108" s="42">
         <f t="shared" si="10"/>
         <v>9904440179.9581642</v>
       </c>
-      <c r="Z108" s="49">
+      <c r="Z108" s="42">
         <f t="shared" si="10"/>
         <v>10493818206.883579</v>
       </c>
-      <c r="AA108" s="49">
+      <c r="AA108" s="42">
         <f>AA107+AA106</f>
         <v>11118268025.077459</v>
       </c>
-      <c r="AB108" s="49">
+      <c r="AB108" s="42">
         <f>AB107+AB106</f>
-        <v>190292694429.11981</v>
-      </c>
-      <c r="AC108" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD108" s="53" t="s">
+        <v>189254319988.737</v>
+      </c>
+      <c r="AC108" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD108" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE108" s="47">
+        <f>AE105</f>
+        <v>9.3034435379016234E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="X109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AE108" s="54">
-        <f>AE105</f>
-        <v>9.2638692263002004E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="55" t="s">
+      <c r="Y109" s="61"/>
+    </row>
+    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X110" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="Y109" s="56"/>
-    </row>
-    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="57" t="s">
+      <c r="Y110" s="49">
+        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
+        <v>153972255832.41473</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X111" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="Y110" s="58">
-        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>154887983500.56265</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y111" s="58">
+      <c r="Y111" s="49">
         <f>W40</f>
         <v>7893806000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y112" s="58">
+      <c r="X112" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y112" s="49">
         <f>AE99</f>
         <v>3325756000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="57" t="s">
+      <c r="X113" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y113" s="49">
+        <f>Y110+Y111-Y112</f>
+        <v>158540305832.41473</v>
+      </c>
+    </row>
+    <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X114" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="Y113" s="58">
-        <f>Y110+Y111-Y112</f>
-        <v>159456033500.56265</v>
-      </c>
-    </row>
-    <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y114" s="59">
+      <c r="Y114" s="50">
         <f>W34*(1+(5*AC16))</f>
         <v>625506115.32664871</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="60" t="s">
+      <c r="X115" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y115" s="52">
+        <f>Y113/Y114</f>
+        <v>253.45924196060434</v>
+      </c>
+    </row>
+    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X116" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="Y115" s="61">
-        <f>Y113/Y114</f>
-        <v>254.92322072229831</v>
-      </c>
-    </row>
-    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="62" t="s">
+      <c r="Y116" s="64" cm="1">
+        <f t="array" ref="Y116">_FV(A1,"Price (Extended hours)",TRUE)</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X117" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="Y116" s="63">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="64" t="s">
+      <c r="Y117" s="54">
+        <f>Y115/Y116-1</f>
+        <v>-0.11377887426362121</v>
+      </c>
+    </row>
+    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X118" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="Y117" s="65">
-        <f>Y115/Y116-1</f>
-        <v>1.9692882889193353E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y118" s="66" t="str">
+      <c r="Y118" s="55" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X109:Y109"/>
     <mergeCell ref="AD83:AE83"/>
     <mergeCell ref="AD84:AE84"/>
     <mergeCell ref="AD93:AE93"/>
     <mergeCell ref="AD98:AE98"/>
     <mergeCell ref="AD104:AE104"/>
-    <mergeCell ref="X109:Y109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ACN" display="ROIC.AI | ACN" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Big Tech/Accenture.xlsx
+++ b/Big Tech/Accenture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00BEA6D-5F21-D94B-B474-7E39CF484C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A8C365-FF8C-0C4B-86DF-E6D2D9ED6851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -997,13 +998,21 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1017,15 +1026,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2375,13 +2376,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>345.29500000000002</v>
+    <v>344.81</v>
     <v>242.8</v>
-    <v>1.2434000000000001</v>
-    <v>3.15</v>
-    <v>1.1144000000000001E-2</v>
-    <v>0.19</v>
-    <v>6.648E-4</v>
+    <v>1.2435</v>
+    <v>0.37</v>
+    <v>1.315E-3</v>
+    <v>-0.19</v>
+    <v>-6.7449999999999997E-4</v>
     <v>USD</v>
     <v>Accenture plc is a global professional services company engaged in providing a range of services in strategy and consulting, technology, operations and Accenture song. It serves clients in North America, Europe and Growth markets. It provides a range of services, including application services, artificial intelligence, automation, business process outsourcing, business strategy, change management, cloud, data and analytics, digital commerce, digital engineering and manufacturing, finance consulting, infrastructure, marketing, mergers and acquisitions, metaverse, operating models, security, supply chain management, technology consulting, technology innovation and zero-based transformation. It helps organizations to achieve transformational impact with solutions in C-Suite assessment, team dynamics and various others. It also offers automated production lines that leverage the cloud, data and artificial intelligence (AI) that makes factories and plants smarter through Eclipse Automation.</v>
     <v>721000</v>
@@ -2389,25 +2390,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Grand Canal Square, Grand Canal Harbour, Dublin 2, DUBLIN, DUBLIN IE</v>
-    <v>285.95999999999998</v>
+    <v>282.24</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45016.992773471873</v>
+    <v>45022.996718622657</v>
     <v>0</v>
-    <v>282.61</v>
-    <v>189376500000</v>
+    <v>278.86</v>
+    <v>186653200000</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY</v>
-    <v>283.12</v>
-    <v>26.017099999999999</v>
-    <v>282.66000000000003</v>
-    <v>285.81</v>
-    <v>286</v>
+    <v>280.66000000000003</v>
+    <v>25.8947</v>
+    <v>281.33</v>
+    <v>281.7</v>
+    <v>281.51</v>
     <v>662595700</v>
     <v>ACN</v>
     <v>ACCENTURE PUBLIC LIMITED COMPANY (XNYS:ACN)</v>
-    <v>3009370</v>
-    <v>2885890</v>
+    <v>2125329</v>
+    <v>3009610</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2995,10 +2996,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y124" sqref="Y124"/>
+      <selection pane="bottomRight" activeCell="Y115" sqref="Y115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4401,15 +4402,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>3.0745780799052769</v>
+        <v>3.0303645767250722</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>27.536985058822896</v>
+        <v>27.140993626883386</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>21.463639154853304</v>
+        <v>21.154984551402443</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9254,10 +9255,10 @@
       <c r="W83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD83" s="56" t="s">
+      <c r="AD83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AE83" s="57"/>
+      <c r="AE83" s="61"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9329,10 +9330,10 @@
       <c r="W84" s="1">
         <v>374349000</v>
       </c>
-      <c r="AD84" s="58" t="s">
+      <c r="AD84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AE84" s="59"/>
+      <c r="AE84" s="63"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10050,10 +10051,10 @@
       <c r="W93" s="1">
         <v>12580000</v>
       </c>
-      <c r="AD93" s="58" t="s">
+      <c r="AD93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AE93" s="59"/>
+      <c r="AE93" s="63"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10205,9 +10206,9 @@
       <c r="AD95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AE95" s="62" cm="1">
+      <c r="AE95" s="55" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.2434000000000001</v>
+        <v>1.2435</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10362,7 +10363,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.4478370000000006E-2</v>
+        <v>9.4482675000000016E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10435,10 +10436,10 @@
       <c r="W98" s="1">
         <v>-2457306000</v>
       </c>
-      <c r="AD98" s="58" t="s">
+      <c r="AD98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AE98" s="59"/>
+      <c r="AE98" s="63"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10593,7 +10594,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>1.7258521353273621E-2</v>
+        <v>1.7505917865976692E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10671,7 +10672,7 @@
       </c>
       <c r="AE101" s="49" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>189376500000</v>
+        <v>186653200000</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10749,7 +10750,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.98274147864672634</v>
+        <v>0.98249408213402334</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10827,7 +10828,7 @@
       </c>
       <c r="AE103" s="38">
         <f>AE99+AE101</f>
-        <v>192702256000</v>
+        <v>189978956000</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10900,10 +10901,10 @@
       <c r="W104" s="11">
         <v>7889833000</v>
       </c>
-      <c r="AD104" s="58" t="s">
+      <c r="AD104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AE104" s="59"/>
+      <c r="AE104" s="63"/>
     </row>
     <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11005,7 +11006,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>9.3034435379016234E-2</v>
+        <v>9.3017966580612482E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11078,23 +11079,23 @@
       <c r="W106" s="1">
         <v>8823131000</v>
       </c>
-      <c r="X106" s="63">
+      <c r="X106" s="56">
         <f>W106*(1+$AE$106)</f>
         <v>9348164161.4508705</v>
       </c>
-      <c r="Y106" s="63">
+      <c r="Y106" s="56">
         <f t="shared" ref="Y106:AB106" si="9">X106*(1+$AE$106)</f>
         <v>9904440179.9581642</v>
       </c>
-      <c r="Z106" s="63">
+      <c r="Z106" s="56">
         <f t="shared" si="9"/>
         <v>10493818206.883579</v>
       </c>
-      <c r="AA106" s="63">
+      <c r="AA106" s="56">
         <f t="shared" si="9"/>
         <v>11118268025.077459</v>
       </c>
-      <c r="AB106" s="63">
+      <c r="AB106" s="56">
         <f t="shared" si="9"/>
         <v>11779876632.165413</v>
       </c>
@@ -11139,7 +11140,7 @@
       <c r="AA107" s="39"/>
       <c r="AB107" s="42">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>177474443356.57159</v>
+        <v>177517414221.12976</v>
       </c>
       <c r="AC107" s="43" t="s">
         <v>148</v>
@@ -11170,7 +11171,7 @@
       </c>
       <c r="AB108" s="42">
         <f>AB107+AB106</f>
-        <v>189254319988.737</v>
+        <v>189297290853.29517</v>
       </c>
       <c r="AC108" s="43" t="s">
         <v>144</v>
@@ -11180,14 +11181,14 @@
       </c>
       <c r="AE108" s="47">
         <f>AE105</f>
-        <v>9.3034435379016234E-2</v>
+        <v>9.3017966580612482E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="60" t="s">
+      <c r="X109" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="Y109" s="61"/>
+      <c r="Y109" s="59"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="X110" s="48" t="s">
@@ -11195,7 +11196,7 @@
       </c>
       <c r="Y110" s="49">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>153972255832.41473</v>
+        <v>154010150804.03229</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11222,7 +11223,7 @@
       </c>
       <c r="Y113" s="49">
         <f>Y110+Y111-Y112</f>
-        <v>158540305832.41473</v>
+        <v>158578200804.03229</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11238,34 +11239,34 @@
       <c r="X115" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="Y115" s="52">
+      <c r="Y115" s="64">
         <f>Y113/Y114</f>
-        <v>253.45924196060434</v>
+        <v>253.51982485610131</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
       <c r="X116" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="Y116" s="64" cm="1">
+      <c r="Y116" s="57" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>286</v>
+        <v>281.51</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="53" t="s">
+      <c r="X117" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="Y117" s="54">
+      <c r="Y117" s="53">
         <f>Y115/Y116-1</f>
-        <v>-0.11377887426362121</v>
+        <v>-9.9428706418595025E-2</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="53" t="s">
+      <c r="X118" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="Y118" s="55" t="str">
+      <c r="Y118" s="54" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
